--- a/trunk/model/Prototypes.xlsx
+++ b/trunk/model/Prototypes.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Serve Game" sheetId="1" r:id="rId1"/>
-    <sheet name="Start Game" sheetId="4" r:id="rId2"/>
-    <sheet name="Play Local 1 Game" sheetId="8" r:id="rId3"/>
-    <sheet name="Play Local 2 Game" sheetId="7" r:id="rId4"/>
-    <sheet name="Play Network Game" sheetId="5" r:id="rId5"/>
-    <sheet name="Configure Game" sheetId="6" r:id="rId6"/>
+    <sheet name="Main" sheetId="10" r:id="rId1"/>
+    <sheet name="Serve Game" sheetId="1" r:id="rId2"/>
+    <sheet name="Start Game" sheetId="4" r:id="rId3"/>
+    <sheet name="Play Local 1 Game" sheetId="8" r:id="rId4"/>
+    <sheet name="Play Local 2 Game" sheetId="7" r:id="rId5"/>
+    <sheet name="Play Network Game" sheetId="5" r:id="rId6"/>
+    <sheet name="Configure Game" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>Game Profile:</t>
   </si>
@@ -247,13 +248,58 @@
   </si>
   <si>
     <t>Play Local Game for 1 Player</t>
+  </si>
+  <si>
+    <t>Main Window</t>
+  </si>
+  <si>
+    <t>Play Local Game</t>
+  </si>
+  <si>
+    <t>Serve Remote Game</t>
+  </si>
+  <si>
+    <t>Enter a new remote game, over network.</t>
+  </si>
+  <si>
+    <t>Create a new network game, and invite your friends.</t>
+  </si>
+  <si>
+    <t>Player Profile Editor</t>
+  </si>
+  <si>
+    <t>Player Name:</t>
+  </si>
+  <si>
+    <t>Game Options</t>
+  </si>
+  <si>
+    <t>Configure game profiles, player profile and piece streams.</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Show game and environment informations.</t>
+  </si>
+  <si>
+    <t>Play a local game with one or two simultaneous players.</t>
+  </si>
+  <si>
+    <t>Exits Teamtris.</t>
+  </si>
+  <si>
+    <t>ico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +350,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -617,12 +671,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -631,6 +701,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -647,44 +729,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -697,11 +741,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,17 +1063,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="44" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -1035,6 +1096,385 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="H5" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="H9" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="4"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="H13" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="4"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="H17" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="4"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="H22" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="4"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="H26" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="H9:P10"/>
+    <mergeCell ref="H13:P14"/>
+    <mergeCell ref="H17:P18"/>
+    <mergeCell ref="H22:P23"/>
+    <mergeCell ref="H26:P27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="B2" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1042,13 +1482,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1084,11 +1524,11 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1099,10 +1539,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="53">
+      <c r="O6" s="73">
         <v>2</v>
       </c>
-      <c r="P6" s="55"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17">
@@ -1121,10 +1561,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="53">
+      <c r="O7" s="73">
         <v>5000</v>
       </c>
-      <c r="P7" s="55"/>
+      <c r="P7" s="75"/>
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17">
@@ -1162,11 +1602,11 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="53">
+      <c r="N9" s="73">
         <v>100</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17">
@@ -1184,11 +1624,11 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="53">
+      <c r="N10" s="73">
         <v>300</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17">
@@ -1206,11 +1646,11 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="53">
+      <c r="N11" s="73">
         <v>600</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="2:17">
@@ -1228,11 +1668,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="53">
+      <c r="N12" s="73">
         <v>1000</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17">
@@ -1396,19 +1836,19 @@
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="2:17">
@@ -1513,19 +1953,19 @@
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="4"/>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="46"/>
       <c r="O26" s="10" t="s">
         <v>49</v>
@@ -1595,23 +2035,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="F20:P20"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AI29"/>
   <sheetViews>
@@ -1672,13 +2112,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1753,11 +2193,11 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1768,10 +2208,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="53">
+      <c r="O6" s="73">
         <v>4</v>
       </c>
-      <c r="P6" s="55"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="6"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5" t="s">
@@ -1779,11 +2219,11 @@
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="56" t="s">
+      <c r="X6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
       <c r="AA6" s="43" t="s">
         <v>3</v>
       </c>
@@ -1794,10 +2234,10 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="58">
+      <c r="AG6" s="82">
         <v>2</v>
       </c>
-      <c r="AH6" s="59"/>
+      <c r="AH6" s="83"/>
       <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="2:35">
@@ -1816,10 +2256,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="53">
+      <c r="O7" s="73">
         <v>10000</v>
       </c>
-      <c r="P7" s="55"/>
+      <c r="P7" s="75"/>
       <c r="Q7" s="6"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
@@ -1836,10 +2276,10 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="58">
+      <c r="AG7" s="82">
         <v>5000</v>
       </c>
-      <c r="AH7" s="59"/>
+      <c r="AH7" s="83"/>
       <c r="AI7" s="6"/>
     </row>
     <row r="8" spans="2:35">
@@ -1895,11 +2335,11 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="53">
+      <c r="N9" s="73">
         <v>0</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
       <c r="Q9" s="6"/>
       <c r="T9" s="4"/>
       <c r="U9" s="22"/>
@@ -1915,11 +2355,11 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="58">
+      <c r="AF9" s="82">
         <v>100</v>
       </c>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="59"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="83"/>
       <c r="AI9" s="6"/>
     </row>
     <row r="10" spans="2:35">
@@ -1937,11 +2377,11 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="53">
+      <c r="N10" s="73">
         <v>300</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
       <c r="Q10" s="6"/>
       <c r="T10" s="4"/>
       <c r="U10" s="22"/>
@@ -1957,11 +2397,11 @@
         <v>2</v>
       </c>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="58">
+      <c r="AF10" s="82">
         <v>300</v>
       </c>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="59"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="83"/>
       <c r="AI10" s="6"/>
     </row>
     <row r="11" spans="2:35">
@@ -1979,11 +2419,11 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="53">
+      <c r="N11" s="73">
         <v>900</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="6"/>
       <c r="T11" s="4"/>
       <c r="U11" s="22"/>
@@ -1999,11 +2439,11 @@
         <v>3</v>
       </c>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="58">
+      <c r="AF11" s="82">
         <v>600</v>
       </c>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="59"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="83"/>
       <c r="AI11" s="6"/>
     </row>
     <row r="12" spans="2:35">
@@ -2021,11 +2461,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="53">
+      <c r="N12" s="73">
         <v>1500</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="6"/>
       <c r="T12" s="4"/>
       <c r="U12" s="19"/>
@@ -2041,11 +2481,11 @@
         <v>4</v>
       </c>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="58">
+      <c r="AF12" s="82">
         <v>1000</v>
       </c>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="59"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="83"/>
       <c r="AI12" s="6"/>
     </row>
     <row r="13" spans="2:35">
@@ -2257,19 +2697,19 @@
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="46"/>
-      <c r="X20" s="70" t="s">
+      <c r="X20" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
       <c r="AI20" s="6"/>
     </row>
     <row r="21" spans="20:35">
@@ -2374,17 +2814,17 @@
     </row>
     <row r="26" spans="20:35">
       <c r="T26" s="4"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="61"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="78"/>
       <c r="AF26" s="46"/>
       <c r="AG26" s="10" t="s">
         <v>49</v>
@@ -2452,6 +2892,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="U26:AE26"/>
     <mergeCell ref="X20:AH20"/>
     <mergeCell ref="H4:L4"/>
@@ -2468,18 +2909,17 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AF11:AH11"/>
     <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -2578,8 +3018,8 @@
       <c r="L7" s="6"/>
       <c r="M7" s="46"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="46"/>
       <c r="U7" s="6"/>
@@ -2587,8 +3027,8 @@
     <row r="8" spans="2:21">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
@@ -2601,7 +3041,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="46"/>
-      <c r="E9" s="95"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
@@ -2625,7 +3065,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="46"/>
-      <c r="E10" s="95"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
@@ -2640,11 +3080,11 @@
       </c>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="58">
+      <c r="R10" s="82">
         <v>6700</v>
       </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="59"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="83"/>
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21">
@@ -2666,11 +3106,11 @@
       </c>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="58">
+      <c r="R11" s="82">
         <v>52</v>
       </c>
-      <c r="S11" s="60"/>
-      <c r="T11" s="59"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="83"/>
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21">
@@ -2694,11 +3134,11 @@
       </c>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="58">
+      <c r="R12" s="82">
         <v>2</v>
       </c>
-      <c r="S12" s="60"/>
-      <c r="T12" s="59"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="83"/>
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21">
@@ -2741,11 +3181,11 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="89">
+      <c r="R14" s="85">
         <v>0.52152777777777781</v>
       </c>
-      <c r="S14" s="90"/>
-      <c r="T14" s="91"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21">
@@ -2773,7 +3213,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="86"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="6"/>
       <c r="M16" s="46"/>
       <c r="U16" s="6"/>
@@ -2788,8 +3228,8 @@
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="46"/>
       <c r="U17" s="6"/>
     </row>
@@ -2804,7 +3244,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="87"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="46"/>
       <c r="U18" s="6"/>
     </row>
@@ -2817,9 +3257,9 @@
       <c r="G19" s="46"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="86"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="85"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
@@ -2839,16 +3279,16 @@
       <c r="G20" s="46"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="85"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
       <c r="U20" s="6"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="4"/>
-      <c r="C21" s="84"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="30"/>
@@ -2856,8 +3296,8 @@
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="46"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="85"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="46"/>
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
@@ -2870,43 +3310,43 @@
     </row>
     <row r="22" spans="2:21" ht="15" customHeight="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="85"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="46"/>
       <c r="U22" s="6"/>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="4"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="81"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="92" t="s">
+      <c r="N23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="46"/>
-      <c r="R23" s="92" t="s">
+      <c r="R23" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
       <c r="U23" s="6"/>
     </row>
     <row r="24" spans="2:21">
@@ -2945,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AL25"/>
   <sheetViews>
@@ -3001,7 +3441,7 @@
     </row>
     <row r="4" spans="2:38">
       <c r="B4" s="4"/>
-      <c r="C4" s="71"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3012,7 +3452,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="71"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="46"/>
       <c r="P4" t="s">
         <v>71</v>
@@ -3021,7 +3461,7 @@
       <c r="U4" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="71"/>
+      <c r="Z4" s="53"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -3032,12 +3472,12 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="71"/>
+      <c r="AK4" s="53"/>
       <c r="AL4" s="6"/>
     </row>
     <row r="5" spans="2:38">
       <c r="B5" s="4"/>
-      <c r="C5" s="72"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="4"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
@@ -3048,7 +3488,7 @@
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="72"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="46"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
@@ -3059,7 +3499,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
-      <c r="Z5" s="72"/>
+      <c r="Z5" s="54"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="46"/>
       <c r="AC5" s="46"/>
@@ -3070,19 +3510,19 @@
       <c r="AH5" s="46"/>
       <c r="AI5" s="46"/>
       <c r="AJ5" s="6"/>
-      <c r="AK5" s="72"/>
+      <c r="AK5" s="54"/>
       <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="2:38">
       <c r="B6" s="4"/>
-      <c r="C6" s="72"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="4"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="L6" s="46"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="72"/>
+      <c r="N6" s="54"/>
       <c r="O6" s="46"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="46"/>
@@ -3093,41 +3533,41 @@
       <c r="V6" s="15"/>
       <c r="W6" s="24"/>
       <c r="X6" s="6"/>
-      <c r="Z6" s="72"/>
+      <c r="Z6" s="54"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="46"/>
       <c r="AC6" s="46"/>
       <c r="AD6" s="46"/>
       <c r="AE6" s="46"/>
       <c r="AF6" s="46"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
       <c r="AI6" s="46"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="72"/>
+      <c r="AK6" s="54"/>
       <c r="AL6" s="6"/>
     </row>
     <row r="7" spans="2:38">
       <c r="B7" s="4"/>
-      <c r="C7" s="72"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="4"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="72"/>
+      <c r="N7" s="54"/>
       <c r="O7" s="46"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="46"/>
       <c r="R7" s="23"/>
       <c r="S7" s="6"/>
       <c r="T7" s="46"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="6"/>
-      <c r="Z7" s="72"/>
+      <c r="Z7" s="54"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="46"/>
       <c r="AC7" s="46"/>
@@ -3135,36 +3575,36 @@
       <c r="AE7" s="46"/>
       <c r="AF7" s="46"/>
       <c r="AG7" s="46"/>
-      <c r="AH7" s="95"/>
+      <c r="AH7" s="68"/>
       <c r="AI7" s="46"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="72"/>
+      <c r="AK7" s="54"/>
       <c r="AL7" s="6"/>
     </row>
     <row r="8" spans="2:38">
       <c r="B8" s="4"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="46"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="9"/>
       <c r="T8" s="46"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="46"/>
-      <c r="Z8" s="72"/>
+      <c r="Z8" s="54"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="46"/>
       <c r="AC8" s="46"/>
@@ -3172,18 +3612,18 @@
       <c r="AE8" s="46"/>
       <c r="AF8" s="46"/>
       <c r="AG8" s="46"/>
-      <c r="AH8" s="95"/>
+      <c r="AH8" s="68"/>
       <c r="AI8" s="46"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="72"/>
+      <c r="AK8" s="54"/>
       <c r="AL8" s="6"/>
     </row>
     <row r="9" spans="2:38">
       <c r="B9" s="4"/>
-      <c r="C9" s="72"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="4"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="95"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
@@ -3191,9 +3631,9 @@
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="54"/>
       <c r="O9" s="46"/>
-      <c r="Z9" s="72"/>
+      <c r="Z9" s="54"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="46"/>
       <c r="AC9" s="46"/>
@@ -3204,15 +3644,15 @@
       <c r="AH9" s="46"/>
       <c r="AI9" s="46"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="72"/>
+      <c r="AK9" s="54"/>
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="4"/>
-      <c r="C10" s="72"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="95"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
@@ -3220,7 +3660,7 @@
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="72"/>
+      <c r="N10" s="54"/>
       <c r="O10" s="46"/>
       <c r="Q10" s="46" t="s">
         <v>54</v>
@@ -3231,7 +3671,7 @@
       <c r="U10" s="46"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
-      <c r="Z10" s="72"/>
+      <c r="Z10" s="54"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="46"/>
       <c r="AC10" s="46"/>
@@ -3242,12 +3682,12 @@
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="6"/>
-      <c r="AK10" s="72"/>
+      <c r="AK10" s="54"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="2:38">
       <c r="B11" s="4"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="4"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -3258,7 +3698,7 @@
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="46"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="46" t="s">
@@ -3266,14 +3706,14 @@
       </c>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="58">
+      <c r="U11" s="82">
         <v>6700</v>
       </c>
-      <c r="V11" s="60"/>
-      <c r="W11" s="59"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="83"/>
       <c r="X11" s="46"/>
       <c r="Y11" s="46"/>
-      <c r="Z11" s="72"/>
+      <c r="Z11" s="54"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="46"/>
       <c r="AC11" s="46"/>
@@ -3284,12 +3724,12 @@
       <c r="AH11" s="46"/>
       <c r="AI11" s="46"/>
       <c r="AJ11" s="6"/>
-      <c r="AK11" s="72"/>
+      <c r="AK11" s="54"/>
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="2:38">
       <c r="B12" s="4"/>
-      <c r="C12" s="72"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="4"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -3302,7 +3742,7 @@
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="72"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="46"/>
       <c r="Q12" s="46"/>
       <c r="R12" s="46" t="s">
@@ -3310,14 +3750,14 @@
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
-      <c r="U12" s="58">
+      <c r="U12" s="82">
         <v>52</v>
       </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="59"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="83"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
-      <c r="Z12" s="72"/>
+      <c r="Z12" s="54"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="46"/>
       <c r="AC12" s="46"/>
@@ -3330,12 +3770,12 @@
       <c r="AH12" s="46"/>
       <c r="AI12" s="46"/>
       <c r="AJ12" s="6"/>
-      <c r="AK12" s="72"/>
+      <c r="AK12" s="54"/>
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="2:38">
       <c r="B13" s="4"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="4"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -3346,7 +3786,7 @@
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="46"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="46" t="s">
@@ -3354,14 +3794,14 @@
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="58">
+      <c r="U13" s="82">
         <v>2</v>
       </c>
-      <c r="V13" s="60"/>
-      <c r="W13" s="59"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="83"/>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
-      <c r="Z13" s="72"/>
+      <c r="Z13" s="54"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="46"/>
       <c r="AC13" s="46"/>
@@ -3372,12 +3812,12 @@
       <c r="AH13" s="46"/>
       <c r="AI13" s="46"/>
       <c r="AJ13" s="6"/>
-      <c r="AK13" s="72"/>
+      <c r="AK13" s="54"/>
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="2:38">
       <c r="B14" s="4"/>
-      <c r="C14" s="72"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="4"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -3388,7 +3828,7 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="72"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="46"/>
       <c r="R14" s="46"/>
       <c r="S14" s="46"/>
@@ -3398,7 +3838,7 @@
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
-      <c r="Z14" s="72"/>
+      <c r="Z14" s="54"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="46"/>
       <c r="AC14" s="46"/>
@@ -3409,12 +3849,12 @@
       <c r="AH14" s="46"/>
       <c r="AI14" s="46"/>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="72"/>
+      <c r="AK14" s="54"/>
       <c r="AL14" s="6"/>
     </row>
     <row r="15" spans="2:38">
       <c r="B15" s="4"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="4"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -3425,7 +3865,7 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="46"/>
       <c r="Q15" s="46" t="s">
         <v>70</v>
@@ -3438,7 +3878,7 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="46"/>
-      <c r="Z15" s="72"/>
+      <c r="Z15" s="54"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="46"/>
       <c r="AC15" s="46"/>
@@ -3449,12 +3889,12 @@
       <c r="AH15" s="46"/>
       <c r="AI15" s="46"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="72"/>
+      <c r="AK15" s="54"/>
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:38">
       <c r="B16" s="4"/>
-      <c r="C16" s="72"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="4"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -3463,9 +3903,9 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="86"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="72"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="46"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="46" t="s">
@@ -3473,15 +3913,15 @@
       </c>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
-      <c r="U16" s="58">
+      <c r="U16" s="82">
         <v>12300</v>
       </c>
-      <c r="V16" s="60"/>
-      <c r="W16" s="59"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="83"/>
       <c r="X16" s="46"/>
       <c r="Y16" s="46"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="97"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="70"/>
       <c r="AB16" s="24"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
@@ -3491,12 +3931,12 @@
       <c r="AH16" s="24"/>
       <c r="AI16" s="24"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="75"/>
+      <c r="AK16" s="57"/>
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:38">
       <c r="B17" s="4"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="4"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3505,9 +3945,9 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="72"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="46"/>
       <c r="Q17" s="46"/>
       <c r="R17" s="46" t="s">
@@ -3515,15 +3955,15 @@
       </c>
       <c r="S17" s="46"/>
       <c r="T17" s="46"/>
-      <c r="U17" s="58">
+      <c r="U17" s="82">
         <v>87</v>
       </c>
-      <c r="V17" s="60"/>
-      <c r="W17" s="59"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="83"/>
       <c r="X17" s="46"/>
       <c r="Y17" s="46"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="97"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
@@ -3533,12 +3973,12 @@
       <c r="AH17" s="24"/>
       <c r="AI17" s="24"/>
       <c r="AJ17" s="28"/>
-      <c r="AK17" s="75"/>
+      <c r="AK17" s="57"/>
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:38">
       <c r="B18" s="4"/>
-      <c r="C18" s="97"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="15"/>
@@ -3548,8 +3988,8 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="72"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="46"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46" t="s">
@@ -3557,15 +3997,15 @@
       </c>
       <c r="S18" s="46"/>
       <c r="T18" s="46"/>
-      <c r="U18" s="58">
+      <c r="U18" s="82">
         <v>3</v>
       </c>
-      <c r="V18" s="60"/>
-      <c r="W18" s="59"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="83"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="97"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="70"/>
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24"/>
@@ -3575,12 +4015,12 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
       <c r="AJ18" s="28"/>
-      <c r="AK18" s="75"/>
+      <c r="AK18" s="57"/>
       <c r="AL18" s="6"/>
     </row>
     <row r="19" spans="2:38">
       <c r="B19" s="4"/>
-      <c r="C19" s="97"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="22"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -3588,10 +4028,10 @@
       <c r="H19" s="46"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="86"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="72"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
@@ -3603,8 +4043,8 @@
       <c r="W19" s="46"/>
       <c r="X19" s="46"/>
       <c r="Y19" s="46"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="97"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="70"/>
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
@@ -3614,12 +4054,12 @@
       <c r="AH19" s="24"/>
       <c r="AI19" s="24"/>
       <c r="AJ19" s="28"/>
-      <c r="AK19" s="75"/>
+      <c r="AK19" s="57"/>
       <c r="AL19" s="6"/>
     </row>
     <row r="20" spans="2:38" ht="15" customHeight="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="82"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="22"/>
       <c r="E20" s="15"/>
       <c r="F20" s="21"/>
@@ -3627,10 +4067,10 @@
       <c r="H20" s="46"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="75"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="57"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46" t="s">
@@ -3639,15 +4079,15 @@
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
-      <c r="U20" s="89">
+      <c r="U20" s="85">
         <v>0.64166666666666672</v>
       </c>
-      <c r="V20" s="90"/>
-      <c r="W20" s="91"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="87"/>
       <c r="X20" s="46"/>
       <c r="Y20" s="46"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="98"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="71"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="24"/>
@@ -3656,14 +4096,14 @@
       <c r="AG20" s="24"/>
       <c r="AH20" s="24"/>
       <c r="AI20" s="24"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="75"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="57"/>
       <c r="AL20" s="6"/>
     </row>
     <row r="21" spans="2:38">
       <c r="B21" s="4"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="84"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="30"/>
@@ -3671,9 +4111,9 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="46"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="75"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="57"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -3685,8 +4125,8 @@
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
       <c r="Y21" s="46"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="98"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="71"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="15"/>
@@ -3695,35 +4135,35 @@
       <c r="AG21" s="24"/>
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="75"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="57"/>
       <c r="AL21" s="6"/>
     </row>
     <row r="22" spans="2:38">
       <c r="B22" s="4"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="76" t="s">
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="93" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="46"/>
       <c r="X22" s="46"/>
-      <c r="Z22" s="83" t="s">
+      <c r="Z22" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="95"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="68"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
@@ -3731,26 +4171,26 @@
       <c r="AG22" s="21"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="23"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="76" t="s">
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="93" t="s">
         <v>10</v>
       </c>
       <c r="AL22" s="6"/>
     </row>
     <row r="23" spans="2:38">
       <c r="B23" s="4"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="77"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="92"/>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -3761,59 +4201,59 @@
       <c r="V23" s="46"/>
       <c r="W23" s="46"/>
       <c r="X23" s="46"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="77"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="92"/>
       <c r="AL23" s="6"/>
     </row>
     <row r="24" spans="2:38">
       <c r="B24" s="4"/>
       <c r="C24" s="46"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="25"/>
       <c r="N24" s="46"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="Q24" s="92" t="s">
+      <c r="Q24" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="93"/>
-      <c r="S24" s="94"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="90"/>
       <c r="T24" s="46"/>
-      <c r="U24" s="92" t="s">
+      <c r="U24" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="93"/>
-      <c r="W24" s="94"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="90"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
       <c r="AJ24" s="25"/>
       <c r="AK24" s="46"/>
       <c r="AL24" s="6"/>
@@ -3859,26 +4299,26 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
     <mergeCell ref="Z22:Z23"/>
     <mergeCell ref="AK22:AK23"/>
     <mergeCell ref="U16:W16"/>
     <mergeCell ref="U17:W17"/>
     <mergeCell ref="U18:W18"/>
     <mergeCell ref="U20:W20"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AC25"/>
   <sheetViews>
@@ -3926,8 +4366,8 @@
     </row>
     <row r="4" spans="2:29">
       <c r="B4" s="4"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3938,7 +4378,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="71"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="2"/>
@@ -3958,8 +4398,8 @@
     </row>
     <row r="5" spans="2:29">
       <c r="B5" s="4"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="4"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
@@ -3970,7 +4410,7 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="72"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="46"/>
@@ -3983,28 +4423,28 @@
       </c>
       <c r="X5" s="46"/>
       <c r="Y5" s="46"/>
-      <c r="Z5" s="58">
+      <c r="Z5" s="82">
         <v>6700</v>
       </c>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="59"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="83"/>
       <c r="AC5" s="6"/>
     </row>
     <row r="6" spans="2:29">
       <c r="B6" s="4"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="4"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="46"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="72"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="46"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="46"/>
@@ -4017,17 +4457,17 @@
       </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
-      <c r="Z6" s="58">
+      <c r="Z6" s="82">
         <v>52</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="59"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="83"/>
       <c r="AC6" s="6"/>
     </row>
     <row r="7" spans="2:29">
       <c r="B7" s="4"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="4"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
@@ -4035,14 +4475,14 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="95"/>
+      <c r="L7" s="68"/>
       <c r="M7" s="46"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="72"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="46"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
       <c r="T7" s="9"/>
       <c r="U7" s="46"/>
       <c r="V7" s="46"/>
@@ -4051,17 +4491,17 @@
       </c>
       <c r="X7" s="46"/>
       <c r="Y7" s="46"/>
-      <c r="Z7" s="58">
+      <c r="Z7" s="82">
         <v>2</v>
       </c>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="59"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="83"/>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="4"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="4"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
@@ -4069,10 +4509,10 @@
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
-      <c r="L8" s="95"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="46"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="72"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
@@ -4090,8 +4530,8 @@
     </row>
     <row r="9" spans="2:29">
       <c r="B9" s="4"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="4"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
@@ -4102,7 +4542,7 @@
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="72"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="46" t="s">
         <v>59</v>
@@ -4111,23 +4551,23 @@
       <c r="S9" s="46"/>
       <c r="T9" s="46"/>
       <c r="U9" s="46"/>
-      <c r="V9" s="89">
+      <c r="V9" s="85">
         <v>0.52152777777777781</v>
       </c>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="87"/>
       <c r="Y9" s="46"/>
-      <c r="Z9" s="92" t="s">
+      <c r="Z9" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="94"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="90"/>
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="4"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="4"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
@@ -4138,7 +4578,7 @@
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="72"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46" t="s">
         <v>58</v>
@@ -4147,23 +4587,23 @@
       <c r="S10" s="46"/>
       <c r="T10" s="46"/>
       <c r="U10" s="46"/>
-      <c r="V10" s="58">
+      <c r="V10" s="82">
         <v>215</v>
       </c>
-      <c r="W10" s="60"/>
-      <c r="X10" s="59"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="83"/>
       <c r="Y10" s="46"/>
-      <c r="Z10" s="92" t="s">
+      <c r="Z10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="94"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="90"/>
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="4"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="4"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -4174,7 +4614,7 @@
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="72"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
@@ -4192,8 +4632,8 @@
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="4"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="4"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
@@ -4206,7 +4646,7 @@
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="72"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46" t="s">
         <v>46</v>
@@ -4226,8 +4666,8 @@
     </row>
     <row r="13" spans="2:29">
       <c r="B13" s="4"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="4"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
@@ -4238,7 +4678,7 @@
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="72"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="46" t="s">
@@ -4260,8 +4700,8 @@
     </row>
     <row r="14" spans="2:29">
       <c r="B14" s="4"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="4"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
@@ -4272,7 +4712,7 @@
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="72"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="46" t="s">
@@ -4294,8 +4734,8 @@
     </row>
     <row r="15" spans="2:29">
       <c r="B15" s="4"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="4"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
@@ -4306,7 +4746,7 @@
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="72"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46" t="s">
@@ -4328,8 +4768,8 @@
     </row>
     <row r="16" spans="2:29">
       <c r="B16" s="4"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="4"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
@@ -4338,9 +4778,9 @@
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
-      <c r="M16" s="86"/>
+      <c r="M16" s="65"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="72"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="46" t="s">
@@ -4362,8 +4802,8 @@
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="4"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="4"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
@@ -4372,9 +4812,9 @@
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="72"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
       <c r="R17" s="46" t="s">
@@ -4392,8 +4832,8 @@
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="4"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
@@ -4403,8 +4843,8 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="72"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46" t="s">
@@ -4426,8 +4866,8 @@
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="4"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -4435,10 +4875,10 @@
       <c r="I19" s="46"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="86"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="72"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
       <c r="R19" s="46" t="s">
@@ -4460,10 +4900,10 @@
     </row>
     <row r="20" spans="2:29">
       <c r="B20" s="4"/>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="22"/>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -4471,10 +4911,10 @@
       <c r="I20" s="46"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="75"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="U20" s="46"/>
@@ -4489,9 +4929,9 @@
     </row>
     <row r="21" spans="2:29">
       <c r="B21" s="4"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="84"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="30"/>
@@ -4499,9 +4939,9 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="46"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="75"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
@@ -4519,21 +4959,21 @@
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="4"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="76" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P22" s="46"/>
@@ -4553,19 +4993,19 @@
     </row>
     <row r="23" spans="2:29">
       <c r="B23" s="4"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="77"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="92"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
@@ -4585,27 +5025,27 @@
       <c r="B24" s="4"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="25"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="61"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="78"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="10" t="s">
         <v>49</v>
@@ -4645,29 +5085,29 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="Q24:Y24"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="O22:O23"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V10:X10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AI15"/>
+  <dimension ref="B2:AI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11:X11"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
@@ -4728,13 +5168,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="12" t="s">
         <v>3</v>
       </c>
@@ -4752,13 +5192,13 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
       <c r="AE4" s="12" t="s">
         <v>3</v>
       </c>
@@ -4810,10 +5250,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="12" t="s">
         <v>3</v>
       </c>
@@ -4827,10 +5267,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="53">
+      <c r="O6" s="73">
         <v>4</v>
       </c>
-      <c r="P6" s="55"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="6"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5" t="s">
@@ -4849,10 +5289,10 @@
         <v>43</v>
       </c>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="62" t="s">
+      <c r="AG6" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="AH6" s="63"/>
+      <c r="AH6" s="95"/>
       <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="2:35">
@@ -4871,22 +5311,22 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="53">
+      <c r="O7" s="73">
         <v>10000</v>
       </c>
-      <c r="P7" s="55"/>
+      <c r="P7" s="75"/>
       <c r="Q7" s="6"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="51" t="s">
+      <c r="V7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="52"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="64">
+      <c r="W7" s="77"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z7" s="65"/>
+      <c r="Z7" s="97"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="12" t="s">
         <v>3</v>
@@ -4922,15 +5362,15 @@
       <c r="Q8" s="6"/>
       <c r="T8" s="4"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="64">
+      <c r="W8" s="77"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z8" s="65"/>
+      <c r="Z8" s="97"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="12" t="s">
         <v>3</v>
@@ -4960,23 +5400,23 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="53">
+      <c r="N9" s="73">
         <v>0</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
       <c r="Q9" s="6"/>
       <c r="T9" s="4"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="64">
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z9" s="65"/>
+      <c r="Z9" s="97"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="12" t="s">
         <v>3</v>
@@ -5006,23 +5446,23 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="53">
+      <c r="N10" s="73">
         <v>300</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
       <c r="Q10" s="6"/>
       <c r="T10" s="4"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="51" t="s">
+      <c r="V10" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="64">
+      <c r="W10" s="77"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z10" s="65"/>
+      <c r="Z10" s="97"/>
       <c r="AA10" s="49"/>
       <c r="AB10" s="12" t="s">
         <v>3</v>
@@ -5052,23 +5492,23 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="53">
+      <c r="N11" s="73">
         <v>900</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="6"/>
       <c r="T11" s="4"/>
       <c r="U11" s="24"/>
-      <c r="V11" s="51" t="s">
+      <c r="V11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="64">
+      <c r="W11" s="77"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z11" s="65"/>
+      <c r="Z11" s="97"/>
       <c r="AA11" s="50"/>
       <c r="AB11" s="12" t="s">
         <v>3</v>
@@ -5102,11 +5542,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="53">
+      <c r="N12" s="73">
         <v>1500</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="6"/>
       <c r="T12" s="4"/>
       <c r="U12" s="24"/>
@@ -5115,10 +5555,10 @@
       </c>
       <c r="W12" s="24"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="67">
+      <c r="Y12" s="98">
         <v>1</v>
       </c>
-      <c r="Z12" s="66"/>
+      <c r="Z12" s="99"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -5233,8 +5673,134 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="9"/>
     </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="4"/>
+      <c r="C19" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="4"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="4"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="4"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="4"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="4"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="4"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="4"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="4"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="4"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="4"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="F6:G6"/>
@@ -5251,11 +5817,6 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/trunk/model/Prototypes.xlsx
+++ b/trunk/model/Prototypes.xlsx
@@ -693,6 +693,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -701,12 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -750,19 +757,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="B2:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="H26" sqref="H26:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
@@ -1099,7 +1099,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="73" t="s">
         <v>77</v>
       </c>
       <c r="Q4" s="6"/>
@@ -1107,21 +1107,21 @@
     <row r="5" spans="2:17">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17">
@@ -1129,15 +1129,15 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17">
@@ -1149,7 +1149,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="73" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="6"/>
@@ -1157,21 +1157,21 @@
     <row r="9" spans="2:17">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17">
@@ -1179,15 +1179,15 @@
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17">
@@ -1199,7 +1199,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="73" t="s">
         <v>78</v>
       </c>
       <c r="Q12" s="6"/>
@@ -1207,21 +1207,21 @@
     <row r="13" spans="2:17">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17">
@@ -1229,15 +1229,15 @@
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17">
@@ -1249,7 +1249,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="73" t="s">
         <v>83</v>
       </c>
       <c r="Q16" s="6"/>
@@ -1257,21 +1257,21 @@
     <row r="17" spans="2:17">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17">
@@ -1279,15 +1279,15 @@
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="2:17">
@@ -1317,7 +1317,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="73" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="6"/>
@@ -1325,21 +1325,21 @@
     <row r="22" spans="2:17">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:17">
@@ -1347,15 +1347,15 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="2:17">
@@ -1367,7 +1367,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="G25" s="101" t="s">
+      <c r="G25" s="73" t="s">
         <v>86</v>
       </c>
       <c r="Q25" s="6"/>
@@ -1375,21 +1375,21 @@
     <row r="26" spans="2:17">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="H26" s="100" t="s">
+      <c r="H26" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:17">
@@ -1397,15 +1397,15 @@
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="2:17">
@@ -1428,12 +1428,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H26:P27"/>
     <mergeCell ref="H5:P6"/>
     <mergeCell ref="H9:P10"/>
     <mergeCell ref="H13:P14"/>
     <mergeCell ref="H17:P18"/>
     <mergeCell ref="H22:P23"/>
-    <mergeCell ref="H26:P27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1539,10 +1539,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="73">
+      <c r="O6" s="78">
         <v>2</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17">
@@ -1561,10 +1561,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="73">
+      <c r="O7" s="78">
         <v>5000</v>
       </c>
-      <c r="P7" s="75"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17">
@@ -1602,11 +1602,11 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="73">
+      <c r="N9" s="78">
         <v>100</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17">
@@ -1624,11 +1624,11 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="73">
+      <c r="N10" s="78">
         <v>300</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17">
@@ -1646,11 +1646,11 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="73">
+      <c r="N11" s="78">
         <v>600</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="2:17">
@@ -1668,11 +1668,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="73">
+      <c r="N12" s="78">
         <v>1000</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17">
@@ -1836,19 +1836,19 @@
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="2:17">
@@ -1965,7 +1965,7 @@
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="46"/>
       <c r="O26" s="10" t="s">
         <v>49</v>
@@ -2035,16 +2035,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="F20:P20"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="F20:P20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2208,10 +2208,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="73">
+      <c r="O6" s="78">
         <v>4</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="6"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5" t="s">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="80" t="s">
+      <c r="X6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
       <c r="AA6" s="43" t="s">
         <v>3</v>
       </c>
@@ -2234,10 +2234,10 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="82">
+      <c r="AG6" s="85">
         <v>2</v>
       </c>
-      <c r="AH6" s="83"/>
+      <c r="AH6" s="86"/>
       <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="2:35">
@@ -2256,10 +2256,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="73">
+      <c r="O7" s="78">
         <v>10000</v>
       </c>
-      <c r="P7" s="75"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="6"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
@@ -2276,10 +2276,10 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="82">
+      <c r="AG7" s="85">
         <v>5000</v>
       </c>
-      <c r="AH7" s="83"/>
+      <c r="AH7" s="86"/>
       <c r="AI7" s="6"/>
     </row>
     <row r="8" spans="2:35">
@@ -2335,11 +2335,11 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="73">
+      <c r="N9" s="78">
         <v>0</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="6"/>
       <c r="T9" s="4"/>
       <c r="U9" s="22"/>
@@ -2355,11 +2355,11 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="82">
+      <c r="AF9" s="85">
         <v>100</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="83"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="86"/>
       <c r="AI9" s="6"/>
     </row>
     <row r="10" spans="2:35">
@@ -2377,11 +2377,11 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="73">
+      <c r="N10" s="78">
         <v>300</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="6"/>
       <c r="T10" s="4"/>
       <c r="U10" s="22"/>
@@ -2397,11 +2397,11 @@
         <v>2</v>
       </c>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="82">
+      <c r="AF10" s="85">
         <v>300</v>
       </c>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="83"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="86"/>
       <c r="AI10" s="6"/>
     </row>
     <row r="11" spans="2:35">
@@ -2419,11 +2419,11 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="73">
+      <c r="N11" s="78">
         <v>900</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="6"/>
       <c r="T11" s="4"/>
       <c r="U11" s="22"/>
@@ -2439,11 +2439,11 @@
         <v>3</v>
       </c>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="82">
+      <c r="AF11" s="85">
         <v>600</v>
       </c>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="83"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="86"/>
       <c r="AI11" s="6"/>
     </row>
     <row r="12" spans="2:35">
@@ -2461,11 +2461,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="73">
+      <c r="N12" s="78">
         <v>1500</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="6"/>
       <c r="T12" s="4"/>
       <c r="U12" s="19"/>
@@ -2481,11 +2481,11 @@
         <v>4</v>
       </c>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="82">
+      <c r="AF12" s="85">
         <v>1000</v>
       </c>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="83"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="86"/>
       <c r="AI12" s="6"/>
     </row>
     <row r="13" spans="2:35">
@@ -2697,19 +2697,19 @@
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="46"/>
-      <c r="X20" s="79" t="s">
+      <c r="X20" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
       <c r="AI20" s="6"/>
     </row>
     <row r="21" spans="20:35">
@@ -2824,7 +2824,7 @@
       <c r="AB26" s="77"/>
       <c r="AC26" s="77"/>
       <c r="AD26" s="77"/>
-      <c r="AE26" s="78"/>
+      <c r="AE26" s="81"/>
       <c r="AF26" s="46"/>
       <c r="AG26" s="10" t="s">
         <v>49</v>
@@ -2892,6 +2892,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF12:AH12"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="U26:AE26"/>
     <mergeCell ref="X20:AH20"/>
@@ -2908,7 +2909,6 @@
     <mergeCell ref="AF9:AH9"/>
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AF12:AH12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3080,11 +3080,11 @@
       </c>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="82">
+      <c r="R10" s="85">
         <v>6700</v>
       </c>
-      <c r="S10" s="84"/>
-      <c r="T10" s="83"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="86"/>
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21">
@@ -3106,11 +3106,11 @@
       </c>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="82">
+      <c r="R11" s="85">
         <v>52</v>
       </c>
-      <c r="S11" s="84"/>
-      <c r="T11" s="83"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="86"/>
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="82">
+      <c r="R12" s="85">
         <v>2</v>
       </c>
-      <c r="S12" s="84"/>
-      <c r="T12" s="83"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="86"/>
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21">
@@ -3181,11 +3181,11 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="85">
+      <c r="R14" s="88">
         <v>0.52152777777777781</v>
       </c>
-      <c r="S14" s="86"/>
-      <c r="T14" s="87"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21">
@@ -3336,17 +3336,17 @@
       <c r="K23" s="59"/>
       <c r="L23" s="61"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="88" t="s">
+      <c r="N23" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
       <c r="Q23" s="46"/>
-      <c r="R23" s="88" t="s">
+      <c r="R23" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="89"/>
-      <c r="T23" s="90"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="93"/>
       <c r="U23" s="6"/>
     </row>
     <row r="24" spans="2:21">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="82">
+      <c r="U11" s="85">
         <v>6700</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="83"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="86"/>
       <c r="X11" s="46"/>
       <c r="Y11" s="46"/>
       <c r="Z11" s="54"/>
@@ -3750,11 +3750,11 @@
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
-      <c r="U12" s="82">
+      <c r="U12" s="85">
         <v>52</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="83"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="86"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="54"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="82">
+      <c r="U13" s="85">
         <v>2</v>
       </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="83"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="86"/>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
       <c r="Z13" s="54"/>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
-      <c r="U16" s="82">
+      <c r="U16" s="85">
         <v>12300</v>
       </c>
-      <c r="V16" s="84"/>
-      <c r="W16" s="83"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="86"/>
       <c r="X16" s="46"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="57"/>
@@ -3955,11 +3955,11 @@
       </c>
       <c r="S17" s="46"/>
       <c r="T17" s="46"/>
-      <c r="U17" s="82">
+      <c r="U17" s="85">
         <v>87</v>
       </c>
-      <c r="V17" s="84"/>
-      <c r="W17" s="83"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="86"/>
       <c r="X17" s="46"/>
       <c r="Y17" s="46"/>
       <c r="Z17" s="57"/>
@@ -3997,11 +3997,11 @@
       </c>
       <c r="S18" s="46"/>
       <c r="T18" s="46"/>
-      <c r="U18" s="82">
+      <c r="U18" s="85">
         <v>3</v>
       </c>
-      <c r="V18" s="84"/>
-      <c r="W18" s="83"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="86"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
       <c r="Z18" s="62"/>
@@ -4079,11 +4079,11 @@
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
-      <c r="U20" s="85">
+      <c r="U20" s="88">
         <v>0.64166666666666672</v>
       </c>
-      <c r="V20" s="86"/>
-      <c r="W20" s="87"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90"/>
       <c r="X20" s="46"/>
       <c r="Y20" s="46"/>
       <c r="Z20" s="62"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="22" spans="2:38">
       <c r="B22" s="4"/>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="94" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="62"/>
@@ -4154,12 +4154,12 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="64"/>
-      <c r="N22" s="93" t="s">
+      <c r="N22" s="96" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="46"/>
       <c r="X22" s="46"/>
-      <c r="Z22" s="91" t="s">
+      <c r="Z22" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AA22" s="71"/>
@@ -4172,14 +4172,14 @@
       <c r="AH22" s="24"/>
       <c r="AI22" s="23"/>
       <c r="AJ22" s="72"/>
-      <c r="AK22" s="93" t="s">
+      <c r="AK22" s="96" t="s">
         <v>10</v>
       </c>
       <c r="AL22" s="6"/>
     </row>
     <row r="23" spans="2:38">
       <c r="B23" s="4"/>
-      <c r="C23" s="92"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="58"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -4190,7 +4190,7 @@
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="92"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -4201,7 +4201,7 @@
       <c r="V23" s="46"/>
       <c r="W23" s="46"/>
       <c r="X23" s="46"/>
-      <c r="Z23" s="92"/>
+      <c r="Z23" s="95"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
@@ -4212,7 +4212,7 @@
       <c r="AH23" s="69"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="61"/>
-      <c r="AK23" s="92"/>
+      <c r="AK23" s="95"/>
       <c r="AL23" s="6"/>
     </row>
     <row r="24" spans="2:38">
@@ -4231,17 +4231,17 @@
       <c r="N24" s="46"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="Q24" s="88" t="s">
+      <c r="Q24" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="89"/>
-      <c r="S24" s="90"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="93"/>
       <c r="T24" s="46"/>
-      <c r="U24" s="88" t="s">
+      <c r="U24" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="89"/>
-      <c r="W24" s="90"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="93"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
@@ -4299,6 +4299,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="Z22:Z23"/>
@@ -4307,11 +4312,6 @@
     <mergeCell ref="U17:W17"/>
     <mergeCell ref="U18:W18"/>
     <mergeCell ref="U20:W20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4423,11 +4423,11 @@
       </c>
       <c r="X5" s="46"/>
       <c r="Y5" s="46"/>
-      <c r="Z5" s="82">
+      <c r="Z5" s="85">
         <v>6700</v>
       </c>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="83"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="86"/>
       <c r="AC5" s="6"/>
     </row>
     <row r="6" spans="2:29">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
-      <c r="Z6" s="82">
+      <c r="Z6" s="85">
         <v>52</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="83"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="86"/>
       <c r="AC6" s="6"/>
     </row>
     <row r="7" spans="2:29">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="X7" s="46"/>
       <c r="Y7" s="46"/>
-      <c r="Z7" s="82">
+      <c r="Z7" s="85">
         <v>2</v>
       </c>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="83"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="86"/>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="2:29">
@@ -4551,17 +4551,17 @@
       <c r="S9" s="46"/>
       <c r="T9" s="46"/>
       <c r="U9" s="46"/>
-      <c r="V9" s="85">
+      <c r="V9" s="88">
         <v>0.52152777777777781</v>
       </c>
-      <c r="W9" s="86"/>
-      <c r="X9" s="87"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="90"/>
       <c r="Y9" s="46"/>
-      <c r="Z9" s="88" t="s">
+      <c r="Z9" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="93"/>
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="2:29">
@@ -4587,17 +4587,17 @@
       <c r="S10" s="46"/>
       <c r="T10" s="46"/>
       <c r="U10" s="46"/>
-      <c r="V10" s="82">
+      <c r="V10" s="85">
         <v>215</v>
       </c>
-      <c r="W10" s="84"/>
-      <c r="X10" s="83"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="46"/>
-      <c r="Z10" s="88" t="s">
+      <c r="Z10" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="90"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="2:29">
@@ -4900,7 +4900,7 @@
     </row>
     <row r="20" spans="2:29">
       <c r="B20" s="4"/>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="96" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="62"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="21" spans="2:29">
       <c r="B21" s="4"/>
-      <c r="C21" s="93"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="62"/>
       <c r="E21" s="63"/>
       <c r="F21" s="15"/>
@@ -4959,8 +4959,8 @@
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="4"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="91" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="94" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="62"/>
@@ -4973,7 +4973,7 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="64"/>
-      <c r="O22" s="93" t="s">
+      <c r="O22" s="96" t="s">
         <v>12</v>
       </c>
       <c r="P22" s="46"/>
@@ -4993,8 +4993,8 @@
     </row>
     <row r="23" spans="2:29">
       <c r="B23" s="4"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="58"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
@@ -5005,7 +5005,7 @@
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
       <c r="N23" s="61"/>
-      <c r="O23" s="92"/>
+      <c r="O23" s="95"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
@@ -5045,7 +5045,7 @@
       <c r="V24" s="77"/>
       <c r="W24" s="77"/>
       <c r="X24" s="77"/>
-      <c r="Y24" s="78"/>
+      <c r="Y24" s="81"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="10" t="s">
         <v>49</v>
@@ -5085,6 +5085,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q24:Y24"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:O23"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z6:AB6"/>
     <mergeCell ref="Z7:AB7"/>
@@ -5092,10 +5096,6 @@
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Q24:Y24"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:O23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5267,10 +5267,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="73">
+      <c r="O6" s="78">
         <v>4</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="6"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5" t="s">
@@ -5289,10 +5289,10 @@
         <v>43</v>
       </c>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="94" t="s">
+      <c r="AG6" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="AH6" s="95"/>
+      <c r="AH6" s="100"/>
       <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="2:35">
@@ -5311,10 +5311,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="73">
+      <c r="O7" s="78">
         <v>10000</v>
       </c>
-      <c r="P7" s="75"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="6"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
@@ -5322,11 +5322,11 @@
         <v>37</v>
       </c>
       <c r="W7" s="77"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="96">
+      <c r="X7" s="81"/>
+      <c r="Y7" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z7" s="97"/>
+      <c r="Z7" s="98"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="12" t="s">
         <v>3</v>
@@ -5366,11 +5366,11 @@
         <v>38</v>
       </c>
       <c r="W8" s="77"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="96">
+      <c r="X8" s="81"/>
+      <c r="Y8" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z8" s="97"/>
+      <c r="Z8" s="98"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="12" t="s">
         <v>3</v>
@@ -5400,11 +5400,11 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="73">
+      <c r="N9" s="78">
         <v>0</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="6"/>
       <c r="T9" s="4"/>
       <c r="U9" s="24"/>
@@ -5412,11 +5412,11 @@
         <v>39</v>
       </c>
       <c r="W9" s="77"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="96">
+      <c r="X9" s="81"/>
+      <c r="Y9" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z9" s="97"/>
+      <c r="Z9" s="98"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="12" t="s">
         <v>3</v>
@@ -5446,11 +5446,11 @@
         <v>2</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="73">
+      <c r="N10" s="78">
         <v>300</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="6"/>
       <c r="T10" s="4"/>
       <c r="U10" s="24"/>
@@ -5458,11 +5458,11 @@
         <v>40</v>
       </c>
       <c r="W10" s="77"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="96">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z10" s="97"/>
+      <c r="Z10" s="98"/>
       <c r="AA10" s="49"/>
       <c r="AB10" s="12" t="s">
         <v>3</v>
@@ -5492,11 +5492,11 @@
         <v>3</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="73">
+      <c r="N11" s="78">
         <v>900</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="6"/>
       <c r="T11" s="4"/>
       <c r="U11" s="24"/>
@@ -5504,11 +5504,11 @@
         <v>41</v>
       </c>
       <c r="W11" s="77"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="96">
+      <c r="X11" s="81"/>
+      <c r="Y11" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z11" s="97"/>
+      <c r="Z11" s="98"/>
       <c r="AA11" s="50"/>
       <c r="AB11" s="12" t="s">
         <v>3</v>
@@ -5542,11 +5542,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="73">
+      <c r="N12" s="78">
         <v>1500</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="6"/>
       <c r="T12" s="4"/>
       <c r="U12" s="24"/>
@@ -5555,10 +5555,10 @@
       </c>
       <c r="W12" s="24"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="98">
+      <c r="Y12" s="101">
         <v>1</v>
       </c>
-      <c r="Z12" s="99"/>
+      <c r="Z12" s="102"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -5718,7 +5718,7 @@
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="2:17">
@@ -5795,6 +5795,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="H19:P19"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="Y7:Z7"/>
@@ -5803,11 +5809,6 @@
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="N10:P10"/>
@@ -5816,7 +5817,6 @@
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V10:X10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
